--- a/AI_genegator/products.xlsx
+++ b/AI_genegator/products.xlsx
@@ -1,94 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A54AB-ED1F-4B0F-BB91-00FC8827DB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Бренд</t>
-  </si>
-  <si>
-    <t>Коллекция</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Керамин</t>
-  </si>
-  <si>
-    <t>Гламур</t>
-  </si>
-  <si>
-    <t>Коллекция «Гламур» от фабрики Керамин — это воплощение роскоши, элегантности и современного шика, способное преобразить любое пространство в оазис утонченного стиля. Эта линейка керамической плитки создана для тех, кто ценит эксклюзивные дизайнерские решения и стремится наполнить интерьер атмосферой изысканности.
-**Дизайн и эстетика:**  
-Коллекция «Гламур» очаровывает идеальным балансом между классикой и современностью. Плитка выполнена в мягких, благородных оттенках — от жемчужно-белого до глубокого серо-бежевого, что позволяет создать гармоничный и стильный интерьер. Глянцевая поверхность с легкими переливами добавляет пространству эффект сияния, усиливая ощущение простора и света. Художественное исполнение коллекции включает в себя утонченные декоры с изящными орнаментами и геометрическими узорами, которые напоминают роскошные текстильные ткани или декоративную штукатурку.
-**Размеры и форма:**  
-Плитка из коллекции «Гламур» представлена в удобных форматах, идеально подходящих для облицовки как стен, так и полов. Стандартные размеры обеспечивают легкость монтажа и возможность комбинирования различных элементов коллекции для создания уникальных дизайнерских решений. 
-**Поверхность и текстура:**  
-Гладкая, глянцевая поверхность плитки не только визуально увеличивает пространство, но и делает уход за ней максимально простым. Для ценителей тактильных ощущений предусмотрены элементы с деликатной текстурой, создающей эффект объема и глубины.
-**Преимущества коллекции «Гламур»:**  
-- **Роскошный внешний вид:** плитка выглядит дорого и привлекательно, подчеркивая статусность интерьера.  
-- **Универсальность:** подходит для оформления как жилых помещений (ванные комнаты, кухни, гостиные), так и коммерческих пространств (салоны красоты, бутики).  
-- **Долговечность:** высокая износостойкость и устойчивость к влаге гарантируют многолетнюю службу без потери эстетических качеств.  
-- **Легкость ухода:** глянцевая поверхность легко</t>
-  </si>
-  <si>
-    <t>Kerama Marazzi</t>
-  </si>
-  <si>
-    <t>Сорбонна</t>
-  </si>
-  <si>
-    <t>Коллекция «Сорбонна» от Kerama Marazzi — это истинное воплощение изысканности, вдохновлённое утончённой атмосферой Парижа. Она создана для тех, кто ценит элегантность, гармонию и стремится привнести в интерьер нотки европейской утончённости. Эта коллекция станет настоящей жемчужиной вашего пространства, создавая атмосферу, наполненную стилем и теплом.
-Керамическая плитка из коллекции «Сорбонна» отличается утончённой текстурой и богатой палитрой цветов. Каждый элемент коллекции выполнен с особым вниманием к деталям, передающим характер классической архитектуры французской столицы. Лёгкие оттенки белого и кремового, глубокие серые и бежевые тона, а также элегантные декоративные элементы делают коллекцию идеальной для создания интерьеров в стиле неоклассики, минимализма или современного арт-деко.
-Форма плитки продумана до мелочей: её гладкость и ровные края обеспечивают бесшовное соединение, создавая эффект цельного, монолитного покрытия. Поверхность плитки может быть матовой или глянцевой, каждая из которых добавляет свою уникальную текстуру и игру света в пространстве. Глянцевая плитка отражает свет, визуально расширяя помещение и придавая ему торжественность, а матовая — подчёркивает естественность и спокойствие интерьера.
-Особое внимание заслуживают декоративные элементы коллекции: изысканные орнаменты, тонкие геометрические узоры и фактурные детали, которые вдохновлены парижской архитектурой, создают эффект ручной работы. Эти акценты позволят создать уникальный интерьер, наполненный индивидуальностью.
-Коллекция «Сорбонна» универсальна и идеально подходит как для оформления стен, так и для создания эффектных напольных покрытий. Размерный ряд плитки разработан так, чтобы облегчить её укладку и обеспечить максимальную вариативность дизайна. Она станет прекрасным выбором для ванных комнат, кухонь, гостиных и даже коммерческих пространств, таких как кафе или бутики.
-Преимущества коллекции:  
-- Высокая износостойкость</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="JetBrains Mono"/>
       <charset val="204"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,27 +59,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,51 +404,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="142.85546875" customWidth="1"/>
+    <col width="17.85546875" customWidth="1" min="1" max="1"/>
+    <col width="23.5703125" customWidth="1" min="2" max="2"/>
+    <col width="142.85546875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Коллекция</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Описание товара</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="390">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+    <row r="2" ht="390" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Керамин</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Гламур</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Коллекция «Гламур» от фабрики Керамин — это воплощение роскоши, элегантности и современного шика, способное преобразить любое пространство в оазис утонченного стиля. Эта линейка керамической плитки создана для тех, кто ценит эксклюзивные дизайнерские решения и стремится наполнить интерьер атмосферой изысканности.
+**Дизайн и эстетика:**  
+Коллекция «Гламур» очаровывает идеальным балансом между классикой и современностью. Плитка выполнена в мягких, благородных оттенках — от жемчужно-белого до глубокого серо-бежевого, что позволяет создать гармоничный и стильный интерьер. Глянцевая поверхность с легкими переливами добавляет пространству эффект сияния, усиливая ощущение простора и света. Художественное исполнение коллекции включает в себя утонченные декоры с изящными орнаментами и геометрическими узорами, которые напоминают роскошные текстильные ткани или декоративную штукатурку.
+**Размеры и форма:**  
+Плитка из коллекции «Гламур» представлена в удобных форматах, идеально подходящих для облицовки как стен, так и полов. Стандартные размеры обеспечивают легкость монтажа и возможность комбинирования различных элементов коллекции для создания уникальных дизайнерских решений. 
+**Поверхность и текстура:**  
+Гладкая, глянцевая поверхность плитки не только визуально увеличивает пространство, но и делает уход за ней максимально простым. Для ценителей тактильных ощущений предусмотрены элементы с деликатной текстурой, создающей эффект объема и глубины.
+**Преимущества коллекции «Гламур»:**  
+- **Роскошный внешний вид:** плитка выглядит дорого и привлекательно, подчеркивая статусность интерьера.  
+- **Универсальность:** подходит для оформления как жилых помещений (ванные комнаты, кухни, гостиные), так и коммерческих пространств (салоны красоты, бутики).  
+- **Долговечность:** высокая износостойкость и устойчивость к влаге гарантируют многолетнюю службу без потери эстетических качеств.  
+- **Легкость ухода:** глянцевая поверхность легко</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="360">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+    <row r="3" ht="360" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kerama Marazzi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Сорбонна</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Коллекция «Сорбонна» от Kerama Marazzi — это истинное воплощение изысканности, вдохновлённое утончённой атмосферой Парижа. Она создана для тех, кто ценит элегантность, гармонию и стремится привнести в интерьер нотки европейской утончённости. Эта коллекция станет настоящей жемчужиной вашего пространства, создавая атмосферу, наполненную стилем и теплом.
+Керамическая плитка из коллекции «Сорбонна» отличается утончённой текстурой и богатой палитрой цветов. Каждый элемент коллекции выполнен с особым вниманием к деталям, передающим характер классической архитектуры французской столицы. Лёгкие оттенки белого и кремового, глубокие серые и бежевые тона, а также элегантные декоративные элементы делают коллекцию идеальной для создания интерьеров в стиле неоклассики, минимализма или современного арт-деко.
+Форма плитки продумана до мелочей: её гладкость и ровные края обеспечивают бесшовное соединение, создавая эффект цельного, монолитного покрытия. Поверхность плитки может быть матовой или глянцевой, каждая из которых добавляет свою уникальную текстуру и игру света в пространстве. Глянцевая плитка отражает свет, визуально расширяя помещение и придавая ему торжественность, а матовая — подчёркивает естественность и спокойствие интерьера.
+Особое внимание заслуживают декоративные элементы коллекции: изысканные орнаменты, тонкие геометрические узоры и фактурные детали, которые вдохновлены парижской архитектурой, создают эффект ручной работы. Эти акценты позволят создать уникальный интерьер, наполненный индивидуальностью.
+Коллекция «Сорбонна» универсальна и идеально подходит как для оформления стен, так и для создания эффектных напольных покрытий. Размерный ряд плитки разработан так, чтобы облегчить её укладку и обеспечить максимальную вариативность дизайна. Она станет прекрасным выбором для ванных комнат, кухонь, гостиных и даже коммерческих пространств, таких как кафе или бутики.
+Преимущества коллекции:  
+- Высокая износостойкость</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/AI_genegator/products.xlsx
+++ b/AI_genegator/products.xlsx
@@ -1,40 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CEFD75-F33D-4A7C-9DC6-56CC41C9E860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Коллекция</t>
+  </si>
+  <si>
+    <t>Описание товара</t>
+  </si>
+  <si>
+    <t>Керамин</t>
+  </si>
+  <si>
+    <t>Гламур</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Kerama Marazzi</t>
+  </si>
+  <si>
+    <t>Сорбонна</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="JetBrains Mono"/>
       <charset val="204"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,86 +93,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,105 +379,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="17.85546875" customWidth="1" min="1" max="1"/>
-    <col width="23.5703125" customWidth="1" min="2" max="2"/>
-    <col width="142.85546875" customWidth="1" min="3" max="3"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="142.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Бренд</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Коллекция</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Описание</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Описание товара</t>
-        </is>
+    <row r="1" spans="3:6">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" ht="390" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Керамин</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Гламур</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Коллекция «Гламур» от фабрики Керамин — это воплощение роскоши, элегантности и современного шика, способное преобразить любое пространство в оазис утонченного стиля. Эта линейка керамической плитки создана для тех, кто ценит эксклюзивные дизайнерские решения и стремится наполнить интерьер атмосферой изысканности.
-**Дизайн и эстетика:**  
-Коллекция «Гламур» очаровывает идеальным балансом между классикой и современностью. Плитка выполнена в мягких, благородных оттенках — от жемчужно-белого до глубокого серо-бежевого, что позволяет создать гармоничный и стильный интерьер. Глянцевая поверхность с легкими переливами добавляет пространству эффект сияния, усиливая ощущение простора и света. Художественное исполнение коллекции включает в себя утонченные декоры с изящными орнаментами и геометрическими узорами, которые напоминают роскошные текстильные ткани или декоративную штукатурку.
-**Размеры и форма:**  
-Плитка из коллекции «Гламур» представлена в удобных форматах, идеально подходящих для облицовки как стен, так и полов. Стандартные размеры обеспечивают легкость монтажа и возможность комбинирования различных элементов коллекции для создания уникальных дизайнерских решений. 
-**Поверхность и текстура:**  
-Гладкая, глянцевая поверхность плитки не только визуально увеличивает пространство, но и делает уход за ней максимально простым. Для ценителей тактильных ощущений предусмотрены элементы с деликатной текстурой, создающей эффект объема и глубины.
-**Преимущества коллекции «Гламур»:**  
-- **Роскошный внешний вид:** плитка выглядит дорого и привлекательно, подчеркивая статусность интерьера.  
-- **Универсальность:** подходит для оформления как жилых помещений (ванные комнаты, кухни, гостиные), так и коммерческих пространств (салоны красоты, бутики).  
-- **Долговечность:** высокая износостойкость и устойчивость к влаге гарантируют многолетнюю службу без потери эстетических качеств.  
-- **Легкость ухода:** глянцевая поверхность легко</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" ht="360" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kerama Marazzi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Сорбонна</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Коллекция «Сорбонна» от Kerama Marazzi — это истинное воплощение изысканности, вдохновлённое утончённой атмосферой Парижа. Она создана для тех, кто ценит элегантность, гармонию и стремится привнести в интерьер нотки европейской утончённости. Эта коллекция станет настоящей жемчужиной вашего пространства, создавая атмосферу, наполненную стилем и теплом.
-Керамическая плитка из коллекции «Сорбонна» отличается утончённой текстурой и богатой палитрой цветов. Каждый элемент коллекции выполнен с особым вниманием к деталям, передающим характер классической архитектуры французской столицы. Лёгкие оттенки белого и кремового, глубокие серые и бежевые тона, а также элегантные декоративные элементы делают коллекцию идеальной для создания интерьеров в стиле неоклассики, минимализма или современного арт-деко.
-Форма плитки продумана до мелочей: её гладкость и ровные края обеспечивают бесшовное соединение, создавая эффект цельного, монолитного покрытия. Поверхность плитки может быть матовой или глянцевой, каждая из которых добавляет свою уникальную текстуру и игру света в пространстве. Глянцевая плитка отражает свет, визуально расширяя помещение и придавая ему торжественность, а матовая — подчёркивает естественность и спокойствие интерьера.
-Особое внимание заслуживают декоративные элементы коллекции: изысканные орнаменты, тонкие геометрические узоры и фактурные детали, которые вдохновлены парижской архитектурой, создают эффект ручной работы. Эти акценты позволят создать уникальный интерьер, наполненный индивидуальностью.
-Коллекция «Сорбонна» универсальна и идеально подходит как для оформления стен, так и для создания эффектных напольных покрытий. Размерный ряд плитки разработан так, чтобы облегчить её укладку и обеспечить максимальную вариативность дизайна. Она станет прекрасным выбором для ванных комнат, кухонь, гостиных и даже коммерческих пространств, таких как кафе или бутики.
-Преимущества коллекции:  
-- Высокая износостойкость</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
+    <row r="3" spans="3:6" ht="21.75" customHeight="1">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
